--- a/QBTS.xlsx
+++ b/QBTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ADEED5-F3C8-411E-A9EC-B836C1EC23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BABB0C-C98A-424F-A54A-D2708C476DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16940" yWindow="2620" windowWidth="21210" windowHeight="15660" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
+    <workbookView xWindow="15840" yWindow="2580" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Price</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -240,6 +252,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -262,13 +275,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -632,7 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F519C58F-560C-4ADB-A46B-8738912F1791}">
   <dimension ref="K2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -644,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>9.3000000000000007</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="11:13" x14ac:dyDescent="0.25">
@@ -665,7 +680,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>2418.1379097000004</v>
+        <v>1690.0963885000001</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -699,7 +714,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>2264.9509097000005</v>
+        <v>1536.9093885000002</v>
       </c>
     </row>
     <row r="9" spans="11:13" x14ac:dyDescent="0.25">
@@ -731,138 +746,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF8220-2C4E-40EE-8452-F9F198344058}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.7265625" style="4"/>
-    <col min="19" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="22" width="8.7265625" style="4"/>
+    <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="1">
+      <c r="X2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Y2" s="1">
         <v>2022</v>
       </c>
-      <c r="U2" s="1">
+      <c r="Z2" s="1">
         <v>2023</v>
       </c>
-      <c r="V2" s="1">
+      <c r="AA2" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="8">
+        <f>2546-D3</f>
+        <v>1409</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1137</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1307</v>
+      </c>
+      <c r="F3" s="8">
+        <f>6279-E3-D3-C3</f>
+        <v>2426</v>
+      </c>
       <c r="G3" s="8">
+        <f>3083-H3</f>
+        <v>1712</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1371</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1695</v>
+      </c>
+      <c r="J3" s="8">
+        <f>7173-I3-H3-G3</f>
+        <v>2395</v>
+      </c>
+      <c r="K3" s="8">
         <v>1583</v>
       </c>
-      <c r="H3" s="8">
+      <c r="L3" s="8">
         <v>1707</v>
       </c>
-      <c r="I3" s="8">
+      <c r="M3" s="8">
         <v>2562</v>
       </c>
-      <c r="J3" s="8">
-        <f>8758-I3-G3-G3</f>
+      <c r="N3" s="8">
+        <f>8758-M3-K3-K3</f>
         <v>3030</v>
       </c>
-      <c r="K3" s="8">
+      <c r="O3" s="8">
         <v>2465</v>
       </c>
-      <c r="L3" s="8">
+      <c r="P3" s="8">
         <v>2183</v>
       </c>
-      <c r="M3" s="8">
+      <c r="Q3" s="8">
         <v>1870</v>
       </c>
-      <c r="N3" s="8">
-        <f>+M3</f>
+      <c r="R3" s="8">
+        <f>+Q3</f>
         <v>1870</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="T3" s="8">
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="X3" s="7">
+        <f>SUM(C3:F3)</f>
+        <v>6279</v>
+      </c>
+      <c r="Y3" s="8">
         <v>7173</v>
       </c>
-      <c r="U3" s="7">
-        <f>SUM(G3:J3)</f>
+      <c r="Z3" s="7">
+        <f>SUM(K3:N3)</f>
         <v>8882</v>
       </c>
-      <c r="V3" s="7">
-        <f>SUM(K3:N3)</f>
+      <c r="AA3" s="7">
+        <f>SUM(O3:R3)</f>
         <v>8388</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -870,46 +928,50 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
         <v>1162</v>
       </c>
-      <c r="H4" s="5">
+      <c r="L4" s="5">
         <v>1002</v>
       </c>
-      <c r="I4" s="5">
+      <c r="M4" s="5">
         <v>1033</v>
       </c>
-      <c r="J4" s="5">
-        <f>4136-I4-H4-G4</f>
+      <c r="N4" s="5">
+        <f>4136-M4-L4-K4</f>
         <v>939</v>
       </c>
-      <c r="K4" s="5">
+      <c r="O4" s="5">
         <v>806</v>
       </c>
-      <c r="L4" s="5">
+      <c r="P4" s="5">
         <v>795</v>
       </c>
-      <c r="M4" s="5">
+      <c r="Q4" s="5">
         <v>827</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="T4" s="5">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="Y4" s="5">
         <v>2923</v>
       </c>
-      <c r="U4" s="3">
-        <f>SUM(G4:J4)</f>
+      <c r="Z4" s="3">
+        <f>SUM(K4:N4)</f>
         <v>4136</v>
       </c>
-      <c r="V4" s="3">
-        <f>SUM(K4:N4)</f>
+      <c r="AA4" s="3">
+        <f>SUM(O4:R4)</f>
         <v>2428</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
@@ -917,53 +979,57 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <f>+G3-G4</f>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <f t="shared" ref="K5:Q5" si="0">+K3-K4</f>
         <v>421</v>
       </c>
-      <c r="H5" s="5">
-        <f>+H3-H4</f>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
         <v>705</v>
       </c>
-      <c r="I5" s="5">
-        <f>+I3-I4</f>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
         <v>1529</v>
       </c>
-      <c r="J5" s="5">
-        <f>+J3-J4</f>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
         <v>2091</v>
       </c>
-      <c r="K5" s="5">
-        <f>+K3-K4</f>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
         <v>1659</v>
       </c>
-      <c r="L5" s="5">
-        <f>+L3-L4</f>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
         <v>1388</v>
       </c>
-      <c r="M5" s="5">
-        <f>+M3-M4</f>
+      <c r="Q5" s="5">
+        <f t="shared" si="0"/>
         <v>1043</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="T5" s="5">
-        <f>+T3-T4</f>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="Y5" s="5">
+        <f>+Y3-Y4</f>
         <v>4250</v>
       </c>
-      <c r="U5" s="3">
-        <f>+U3-U4</f>
+      <c r="Z5" s="3">
+        <f>+Z3-Z4</f>
         <v>4746</v>
       </c>
-      <c r="V5" s="3">
-        <f>+V3-V4</f>
+      <c r="AA5" s="3">
+        <f>+AA3-AA4</f>
         <v>5960</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -971,46 +1037,50 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
         <v>10915</v>
       </c>
-      <c r="H6" s="5">
+      <c r="L6" s="5">
         <v>9548</v>
       </c>
-      <c r="I6" s="5">
+      <c r="M6" s="5">
         <v>9459</v>
       </c>
-      <c r="J6" s="5">
-        <f>37878-I6-H6-G6</f>
+      <c r="N6" s="5">
+        <f>37878-M6-L6-K6</f>
         <v>7956</v>
       </c>
-      <c r="K6" s="5">
+      <c r="O6" s="5">
         <v>8525</v>
       </c>
-      <c r="L6" s="5">
+      <c r="P6" s="5">
         <v>8355</v>
       </c>
-      <c r="M6" s="5">
+      <c r="Q6" s="5">
         <v>8668</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="T6" s="5">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="Y6" s="5">
         <v>32101</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" ref="U6:U8" si="0">SUM(G6:J6)</f>
+      <c r="Z6" s="3">
+        <f t="shared" ref="Z6:Z8" si="1">SUM(K6:N6)</f>
         <v>37878</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" ref="V6:V8" si="1">SUM(K6:N6)</f>
+      <c r="AA6" s="3">
+        <f t="shared" ref="AA6:AA8" si="2">SUM(O6:R6)</f>
         <v>25548</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1018,46 +1088,50 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
         <v>11296</v>
       </c>
-      <c r="H7" s="5">
+      <c r="L7" s="5">
         <v>9576</v>
       </c>
-      <c r="I7" s="5">
+      <c r="M7" s="5">
         <v>8003</v>
       </c>
-      <c r="J7" s="5">
-        <f>37014-I7-H7-G7</f>
+      <c r="N7" s="5">
+        <f>37014-M7-L7-K7</f>
         <v>8139</v>
       </c>
-      <c r="K7" s="5">
+      <c r="O7" s="5">
         <v>7566</v>
       </c>
-      <c r="L7" s="5">
+      <c r="P7" s="5">
         <v>7471</v>
       </c>
-      <c r="M7" s="5">
+      <c r="Q7" s="5">
         <v>9259</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="T7" s="5">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="Y7" s="5">
         <v>21539</v>
       </c>
-      <c r="U7" s="3">
-        <f t="shared" si="0"/>
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
         <v>37014</v>
       </c>
-      <c r="V7" s="3">
-        <f t="shared" si="1"/>
+      <c r="AA7" s="3">
+        <f t="shared" si="2"/>
         <v>24296</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1065,46 +1139,50 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
         <v>2900</v>
       </c>
-      <c r="H8" s="5">
+      <c r="L8" s="5">
         <v>2488</v>
       </c>
-      <c r="I8" s="5">
+      <c r="M8" s="5">
         <v>2474</v>
       </c>
-      <c r="J8" s="5">
-        <f>10276-I8-H8-G8</f>
+      <c r="N8" s="5">
+        <f>10276-M8-L8-K8</f>
         <v>2414</v>
       </c>
-      <c r="K8" s="5">
+      <c r="O8" s="5">
         <v>3084</v>
       </c>
-      <c r="L8" s="5">
+      <c r="P8" s="5">
         <v>4401</v>
       </c>
-      <c r="M8" s="5">
+      <c r="Q8" s="5">
         <v>3752</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="T8" s="5">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="Y8" s="5">
         <v>10068</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" si="0"/>
+      <c r="Z8" s="3">
+        <f t="shared" si="1"/>
         <v>10276</v>
       </c>
-      <c r="V8" s="3">
-        <f t="shared" si="1"/>
+      <c r="AA8" s="3">
+        <f t="shared" si="2"/>
         <v>11237</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1112,53 +1190,57 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <f>SUM(G6:G8)</f>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9:Q9" si="3">SUM(K6:K8)</f>
         <v>25111</v>
       </c>
-      <c r="H9" s="5">
-        <f>SUM(H6:H8)</f>
+      <c r="L9" s="5">
+        <f t="shared" si="3"/>
         <v>21612</v>
       </c>
-      <c r="I9" s="5">
-        <f>SUM(I6:I8)</f>
+      <c r="M9" s="5">
+        <f t="shared" si="3"/>
         <v>19936</v>
       </c>
-      <c r="J9" s="5">
-        <f>SUM(J6:J8)</f>
+      <c r="N9" s="5">
+        <f t="shared" si="3"/>
         <v>18509</v>
       </c>
-      <c r="K9" s="5">
-        <f>SUM(K6:K8)</f>
+      <c r="O9" s="5">
+        <f t="shared" si="3"/>
         <v>19175</v>
       </c>
-      <c r="L9" s="5">
-        <f>SUM(L6:L8)</f>
+      <c r="P9" s="5">
+        <f t="shared" si="3"/>
         <v>20227</v>
       </c>
-      <c r="M9" s="5">
-        <f>SUM(M6:M8)</f>
+      <c r="Q9" s="5">
+        <f t="shared" si="3"/>
         <v>21679</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="T9" s="5">
-        <f>SUM(T6:T8)</f>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="Y9" s="5">
+        <f>SUM(Y6:Y8)</f>
         <v>63708</v>
       </c>
-      <c r="U9" s="5">
-        <f>SUM(U6:U8)</f>
+      <c r="Z9" s="5">
+        <f>SUM(Z6:Z8)</f>
         <v>85168</v>
       </c>
-      <c r="V9" s="5">
-        <f>SUM(V6:V8)</f>
+      <c r="AA9" s="5">
+        <f>SUM(AA6:AA8)</f>
         <v>61081</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1166,151 +1248,143 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <f>+G5-G9</f>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <f t="shared" ref="K10:Q10" si="4">+K5-K9</f>
         <v>-24690</v>
       </c>
-      <c r="H10" s="5">
-        <f>+H5-H9</f>
+      <c r="L10" s="5">
+        <f t="shared" si="4"/>
         <v>-20907</v>
       </c>
-      <c r="I10" s="5">
-        <f>+I5-I9</f>
+      <c r="M10" s="5">
+        <f t="shared" si="4"/>
         <v>-18407</v>
       </c>
-      <c r="J10" s="5">
-        <f>+J5-J9</f>
+      <c r="N10" s="5">
+        <f t="shared" si="4"/>
         <v>-16418</v>
       </c>
-      <c r="K10" s="5">
-        <f>+K5-K9</f>
+      <c r="O10" s="5">
+        <f t="shared" si="4"/>
         <v>-17516</v>
       </c>
-      <c r="L10" s="5">
-        <f>+L5-L9</f>
+      <c r="P10" s="5">
+        <f t="shared" si="4"/>
         <v>-18839</v>
       </c>
-      <c r="M10" s="5">
-        <f>+M5-M9</f>
+      <c r="Q10" s="5">
+        <f t="shared" si="4"/>
         <v>-20636</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="T10" s="5">
-        <f>+T5-T9</f>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="Y10" s="5">
+        <f>+Y5-Y9</f>
         <v>-59458</v>
       </c>
-      <c r="U10" s="5">
-        <f>+U5-U9</f>
+      <c r="Z10" s="5">
+        <f>+Z5-Z9</f>
         <v>-80422</v>
       </c>
-      <c r="V10" s="5">
-        <f>+V5-V9</f>
+      <c r="AA10" s="5">
+        <f>+AA5-AA9</f>
         <v>-55121</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="5">
+      <c r="K11" s="5">
         <v>-212</v>
       </c>
-      <c r="H11" s="5">
+      <c r="L11" s="5">
         <v>-575</v>
       </c>
-      <c r="I11" s="5">
+      <c r="M11" s="5">
         <v>-1035</v>
       </c>
-      <c r="J11" s="5">
-        <f>-37-I11-H11-G11-2118</f>
+      <c r="N11" s="5">
+        <f>-37-M11-L11-K11-2118</f>
         <v>-333</v>
       </c>
-      <c r="K11" s="5">
+      <c r="O11" s="5">
         <v>-1140</v>
       </c>
-      <c r="L11" s="5">
+      <c r="P11" s="5">
         <v>-1160</v>
       </c>
-      <c r="M11" s="5">
+      <c r="Q11" s="5">
         <v>-1180</v>
       </c>
-      <c r="T11" s="5">
+      <c r="Y11" s="5">
         <v>-2335</v>
       </c>
-      <c r="U11" s="3">
-        <f t="shared" ref="U11" si="2">SUM(G11:J11)</f>
+      <c r="Z11" s="3">
+        <f t="shared" ref="Z11" si="5">SUM(K11:N11)</f>
         <v>-2155</v>
       </c>
-      <c r="V11" s="3">
-        <f t="shared" ref="V11:V13" si="3">SUM(K11:N11)</f>
+      <c r="AA11" s="3">
+        <f t="shared" ref="AA11:AA13" si="6">SUM(O11:R11)</f>
         <v>-3480</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="5">
-        <f>+G10+G11</f>
+      <c r="K12" s="5">
+        <f t="shared" ref="K12:Q12" si="7">+K10+K11</f>
         <v>-24902</v>
       </c>
-      <c r="H12" s="5">
-        <f>+H10+H11</f>
+      <c r="L12" s="5">
+        <f t="shared" si="7"/>
         <v>-21482</v>
       </c>
-      <c r="I12" s="5">
-        <f>+I10+I11</f>
+      <c r="M12" s="5">
+        <f t="shared" si="7"/>
         <v>-19442</v>
       </c>
-      <c r="J12" s="5">
-        <f>+J10+J11</f>
+      <c r="N12" s="5">
+        <f t="shared" si="7"/>
         <v>-16751</v>
       </c>
-      <c r="K12" s="5">
-        <f>+K10+K11</f>
+      <c r="O12" s="5">
+        <f t="shared" si="7"/>
         <v>-18656</v>
       </c>
-      <c r="L12" s="5">
-        <f>+L10+L11</f>
+      <c r="P12" s="5">
+        <f t="shared" si="7"/>
         <v>-19999</v>
       </c>
-      <c r="M12" s="5">
-        <f>+M10+M11</f>
+      <c r="Q12" s="5">
+        <f t="shared" si="7"/>
         <v>-21816</v>
       </c>
-      <c r="T12" s="5">
-        <f>+T10+T11</f>
+      <c r="Y12" s="5">
+        <f>+Y10+Y11</f>
         <v>-61793</v>
       </c>
-      <c r="U12" s="5">
-        <f>+U10+U11</f>
+      <c r="Z12" s="5">
+        <f>+Z10+Z11</f>
         <v>-82577</v>
       </c>
-      <c r="V12" s="5">
-        <f>+V10+V11</f>
+      <c r="AA12" s="5">
+        <f>+AA10+AA11</f>
         <v>-58601</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
       <c r="K13" s="5">
         <v>0</v>
       </c>
@@ -1320,108 +1394,120 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="T13" s="5">
+      <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="U13" s="1">
+      <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="V13" s="3">
-        <f t="shared" si="3"/>
+      <c r="P13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="5">
-        <f>+G12-G13</f>
+      <c r="K14" s="5">
+        <f t="shared" ref="K14:Q14" si="8">+K12-K13</f>
         <v>-24902</v>
       </c>
-      <c r="H14" s="5">
-        <f>+H12-H13</f>
+      <c r="L14" s="5">
+        <f t="shared" si="8"/>
         <v>-21482</v>
       </c>
-      <c r="I14" s="5">
-        <f>+I12-I13</f>
+      <c r="M14" s="5">
+        <f t="shared" si="8"/>
         <v>-19442</v>
       </c>
-      <c r="J14" s="5">
-        <f>+J12-J13</f>
+      <c r="N14" s="5">
+        <f t="shared" si="8"/>
         <v>-16751</v>
       </c>
-      <c r="K14" s="5">
-        <f>+K12-K13</f>
+      <c r="O14" s="5">
+        <f t="shared" si="8"/>
         <v>-18656</v>
       </c>
-      <c r="L14" s="5">
-        <f>+L12-L13</f>
+      <c r="P14" s="5">
+        <f t="shared" si="8"/>
         <v>-19999</v>
       </c>
-      <c r="M14" s="5">
-        <f>+M12-M13</f>
+      <c r="Q14" s="5">
+        <f t="shared" si="8"/>
         <v>-21816</v>
       </c>
-      <c r="T14" s="5">
-        <f>+T12-T13</f>
+      <c r="Y14" s="5">
+        <f>+Y12-Y13</f>
         <v>-61793</v>
       </c>
-      <c r="U14" s="5">
-        <f>+U12-U13</f>
+      <c r="Z14" s="5">
+        <f>+Z12-Z13</f>
         <v>-82577</v>
       </c>
-      <c r="V14" s="5">
-        <f>+V12-V13</f>
+      <c r="AA14" s="5">
+        <f>+AA12-AA13</f>
         <v>-58601</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="6">
-        <f>+G14/G16</f>
+      <c r="K15" s="6">
+        <f t="shared" ref="K15:Q15" si="9">+K14/K16</f>
         <v>-0.20221838160866129</v>
       </c>
-      <c r="H15" s="6">
-        <f>+H14/H16</f>
+      <c r="L15" s="6">
+        <f t="shared" si="9"/>
         <v>-0.16870075204552409</v>
       </c>
-      <c r="I15" s="6">
-        <f>+I14/I16</f>
+      <c r="M15" s="6">
+        <f t="shared" si="9"/>
         <v>-0.14593556466674945</v>
       </c>
-      <c r="J15" s="6">
-        <f>+J14/J16</f>
+      <c r="N15" s="6">
+        <f t="shared" si="9"/>
         <v>-0.12138956800184031</v>
       </c>
-      <c r="K15" s="6">
-        <f>+K14/K16</f>
+      <c r="O15" s="6">
+        <f t="shared" si="9"/>
         <v>-0.11565417294526779</v>
       </c>
-      <c r="L15" s="6">
-        <f>+L14/L16</f>
+      <c r="P15" s="6">
+        <f t="shared" si="9"/>
         <v>-0.11617930930677366</v>
       </c>
-      <c r="M15" s="6">
-        <f>+M14/M16</f>
+      <c r="Q15" s="6">
+        <f t="shared" si="9"/>
         <v>-0.10822205182749896</v>
       </c>
-      <c r="T15" s="6">
-        <f>+T14/T16</f>
+      <c r="Y15" s="6">
+        <f>+Y14/Y16</f>
         <v>-0.51645756861826186</v>
       </c>
-      <c r="U15" s="6">
-        <f>+U14/U16</f>
+      <c r="Z15" s="6">
+        <f>+Z14/Z16</f>
         <v>-0.59841122063685559</v>
       </c>
-      <c r="V15" s="6">
-        <f>+V14/V16</f>
+      <c r="AA15" s="6">
+        <f>+AA14/AA16</f>
         <v>-0.29070042441984167</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1429,64 +1515,83 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
         <v>123144.09699999999</v>
       </c>
-      <c r="H16" s="5">
+      <c r="L16" s="5">
         <v>127337.90300000001</v>
       </c>
-      <c r="I16" s="5">
+      <c r="M16" s="5">
         <v>133223.18</v>
       </c>
-      <c r="J16" s="5">
+      <c r="N16" s="5">
         <v>137993.736</v>
       </c>
-      <c r="K16" s="5">
+      <c r="O16" s="5">
         <v>161308.49</v>
       </c>
-      <c r="L16" s="5">
+      <c r="P16" s="5">
         <v>172139.08499999999</v>
       </c>
-      <c r="M16" s="5">
+      <c r="Q16" s="5">
         <v>201585.533</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="T16" s="5">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="Y16" s="5">
         <v>119647.777</v>
       </c>
-      <c r="U16" s="3">
-        <f>+J16</f>
+      <c r="Z16" s="3">
+        <f>+N16</f>
         <v>137993.736</v>
       </c>
-      <c r="V16" s="3">
-        <f>+M16</f>
+      <c r="AA16" s="3">
+        <f>+Q16</f>
         <v>201585.533</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="9">
-        <f t="shared" ref="K18:L18" si="4">K3/G3-1</f>
+      <c r="O18" s="9">
+        <f t="shared" ref="O18:P18" si="10">O3/K3-1</f>
         <v>0.55716993051168662</v>
       </c>
-      <c r="L18" s="9">
-        <f t="shared" si="4"/>
+      <c r="P18" s="9">
+        <f t="shared" si="10"/>
         <v>0.27885178676039835</v>
       </c>
-      <c r="M18" s="9">
-        <f>M3/I3-1</f>
+      <c r="Q18" s="9">
+        <f>Q3/M3-1</f>
         <v>-0.27010148321623728</v>
       </c>
-      <c r="T18" s="9"/>
+      <c r="R18" s="9">
+        <f>R3/N3-1</f>
+        <v>-0.38283828382838281</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" ref="Y18:Z18" si="11">+Y3/X3-1</f>
+        <v>0.14237935977066418</v>
+      </c>
+      <c r="Z18" s="11">
+        <f>+Z3/Y3-1</f>
+        <v>0.2382545657326085</v>
+      </c>
+      <c r="AA18" s="11">
+        <f>+AA3/Z3-1</f>
+        <v>-5.5618104030623727E-2</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/QBTS.xlsx
+++ b/QBTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BABB0C-C98A-424F-A54A-D2708C476DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92F52F-4724-4289-B6D9-83A8A667196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="2580" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
+    <workbookView xWindow="-28230" yWindow="2100" windowWidth="25545" windowHeight="17280" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +259,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EC333C01-7D09-445D-8CFE-3D4EACCB720D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -649,12 +651,12 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +664,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -674,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
@@ -684,7 +686,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
@@ -696,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
@@ -708,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
@@ -717,7 +719,7 @@
         <v>1536.9093885000002</v>
       </c>
     </row>
-    <row r="9" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
@@ -728,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K10" s="1" t="s">
         <v>8</v>
       </c>
@@ -748,27 +750,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF8220-2C4E-40EE-8452-F9F198344058}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="8.7265625" style="4"/>
-    <col min="23" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="8.7109375" style="4"/>
+    <col min="23" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
@@ -842,7 +844,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -897,8 +899,7 @@
         <v>1870</v>
       </c>
       <c r="R3" s="8">
-        <f>+Q3</f>
-        <v>1870</v>
+        <v>2200</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -917,10 +918,10 @@
       </c>
       <c r="AA3" s="7">
         <f>SUM(O3:R3)</f>
-        <v>8388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -971,7 +972,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1026,10 +1027,10 @@
       </c>
       <c r="AA5" s="3">
         <f>+AA3-AA4</f>
-        <v>5960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>25548</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>24296</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>11237</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1223,10 @@
         <f t="shared" si="3"/>
         <v>21679</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="5">
+        <f t="shared" ref="R9" si="4">SUM(R6:R8)</f>
+        <v>0</v>
+      </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1240,7 +1244,7 @@
         <v>61081</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1253,34 +1257,37 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5">
-        <f t="shared" ref="K10:Q10" si="4">+K5-K9</f>
+        <f t="shared" ref="K10:Q10" si="5">+K5-K9</f>
         <v>-24690</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-20907</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-18407</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16418</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-17516</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-18839</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-20636</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="5">
+        <f t="shared" ref="R10" si="6">+R5-R9</f>
+        <v>0</v>
+      </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1295,10 +1302,10 @@
       </c>
       <c r="AA10" s="5">
         <f>+AA5-AA9</f>
-        <v>-55121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>-54791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1328,45 +1335,49 @@
         <v>-2335</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" ref="Z11" si="5">SUM(K11:N11)</f>
+        <f t="shared" ref="Z11" si="7">SUM(K11:N11)</f>
         <v>-2155</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" ref="AA11:AA13" si="6">SUM(O11:R11)</f>
+        <f t="shared" ref="AA11:AA13" si="8">SUM(O11:R11)</f>
         <v>-3480</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:Q12" si="7">+K10+K11</f>
+        <f t="shared" ref="K12:R12" si="9">+K10+K11</f>
         <v>-24902</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-21482</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-19442</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-16751</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-18656</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-19999</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-21816</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y12" s="5">
         <f>+Y10+Y11</f>
@@ -1378,10 +1389,10 @@
       </c>
       <c r="AA12" s="5">
         <f>+AA10+AA11</f>
-        <v>-58601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>-58271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1406,6 +1417,9 @@
       <c r="Q13" s="5">
         <v>0</v>
       </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
       <c r="Y13" s="5">
         <v>0</v>
       </c>
@@ -1413,41 +1427,45 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:Q14" si="8">+K12-K13</f>
+        <f t="shared" ref="K14:R14" si="10">+K12-K13</f>
         <v>-24902</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-21482</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-19442</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-16751</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-18656</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-19999</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-21816</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="Y14" s="5">
         <f>+Y12-Y13</f>
@@ -1459,40 +1477,44 @@
       </c>
       <c r="AA14" s="5">
         <f>+AA12-AA13</f>
-        <v>-58601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>-58271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ref="K15:Q15" si="9">+K14/K16</f>
+        <f t="shared" ref="K15:R15" si="11">+K14/K16</f>
         <v>-0.20221838160866129</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.16870075204552409</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.14593556466674945</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.12138956800184031</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.11565417294526779</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.11617930930677366</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.10822205182749896</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Y15" s="6">
         <f>+Y14/Y16</f>
@@ -1504,10 +1526,10 @@
       </c>
       <c r="AA15" s="6">
         <f>+AA14/AA16</f>
-        <v>-0.29070042441984167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-0.28906340218372717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1562,10 @@
       <c r="Q16" s="5">
         <v>201585.533</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="R16" s="5">
+        <f>+Q16</f>
+        <v>201585.533</v>
+      </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -1557,19 +1582,23 @@
         <v>201585.533</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="N18" s="9">
+        <f t="shared" ref="N18:P18" si="12">N3/J3-1</f>
+        <v>0.2651356993736953</v>
+      </c>
       <c r="O18" s="9">
-        <f t="shared" ref="O18:P18" si="10">O3/K3-1</f>
+        <f t="shared" si="12"/>
         <v>0.55716993051168662</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27885178676039835</v>
       </c>
       <c r="Q18" s="9">
@@ -1578,10 +1607,10 @@
       </c>
       <c r="R18" s="9">
         <f>R3/N3-1</f>
-        <v>-0.38283828382838281</v>
+        <v>-0.27392739273927391</v>
       </c>
       <c r="Y18" s="11">
-        <f t="shared" ref="Y18:Z18" si="11">+Y3/X3-1</f>
+        <f t="shared" ref="Y18" si="13">+Y3/X3-1</f>
         <v>0.14237935977066418</v>
       </c>
       <c r="Z18" s="11">
@@ -1590,7 +1619,7 @@
       </c>
       <c r="AA18" s="11">
         <f>+AA3/Z3-1</f>
-        <v>-5.5618104030623727E-2</v>
+        <v>-1.8464309840126147E-2</v>
       </c>
     </row>
   </sheetData>

--- a/QBTS.xlsx
+++ b/QBTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92F52F-4724-4289-B6D9-83A8A667196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B839B4-7E92-420A-B24D-A374396D5CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28230" yWindow="2100" windowWidth="25545" windowHeight="17280" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
+    <workbookView xWindow="-20070" yWindow="810" windowWidth="19935" windowHeight="16380" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F519C58F-560C-4ADB-A46B-8738912F1791}">
   <dimension ref="K2:M10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="11:13" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>1690.0963885000001</v>
+        <v>2600.1482900000001</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>1536.9093885000002</v>
+        <v>2446.9612900000002</v>
       </c>
     </row>
     <row r="9" spans="11:13" x14ac:dyDescent="0.2">
@@ -750,11 +750,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF8220-2C4E-40EE-8452-F9F198344058}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/QBTS.xlsx
+++ b/QBTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B839B4-7E92-420A-B24D-A374396D5CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CB230-8AE0-4385-8674-91C207E6590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20070" yWindow="810" windowWidth="19935" windowHeight="16380" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
+    <workbookView xWindow="-49110" yWindow="1095" windowWidth="37290" windowHeight="18300" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Price</t>
   </si>
@@ -166,19 +166,31 @@
   </si>
   <si>
     <t>Q421</t>
+  </si>
+  <si>
+    <t>Bookings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -228,31 +240,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -277,16 +303,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -301,8 +327,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8261350" y="31750"/>
-          <a:ext cx="0" cy="9766300"/>
+          <a:off x="11374120" y="0"/>
+          <a:ext cx="0" cy="10731500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -647,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F519C58F-560C-4ADB-A46B-8738912F1791}">
   <dimension ref="K2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,8 +695,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <f>36+180.252641+43.762188</f>
-        <v>260.01482900000002</v>
+        <v>286</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>6</v>
@@ -682,7 +707,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>2600.1482900000001</v>
+        <v>2860</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -716,7 +741,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>2446.9612900000002</v>
+        <v>2706.8130000000001</v>
       </c>
     </row>
     <row r="9" spans="11:13" x14ac:dyDescent="0.2">
@@ -748,13 +773,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF8220-2C4E-40EE-8452-F9F198344058}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -769,6 +794,10 @@
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="Q1" s="15">
+        <f>CORREL(L3:R3,M7:S7)</f>
+        <v>0.98815973330078921</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
@@ -844,297 +873,142 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="17">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="J3" s="14">
+        <f>(11.5-5.4-I3)/3</f>
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="K3" s="16">
+        <v>2.9</v>
+      </c>
+      <c r="L3" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="M3" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="N3" s="14">
+        <v>3</v>
+      </c>
+      <c r="O3" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="P3" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R3" s="14">
+        <v>18.3</v>
+      </c>
+      <c r="S3" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+    </row>
+    <row r="7" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
-        <f>2546-D3</f>
+      <c r="C7" s="8">
+        <f>2546-D7</f>
         <v>1409</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D7" s="8">
         <v>1137</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E7" s="8">
         <v>1307</v>
       </c>
-      <c r="F3" s="8">
-        <f>6279-E3-D3-C3</f>
+      <c r="F7" s="8">
+        <f>6279-E7-D7-C7</f>
         <v>2426</v>
       </c>
-      <c r="G3" s="8">
-        <f>3083-H3</f>
+      <c r="G7" s="8">
+        <f>3083-H7</f>
         <v>1712</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H7" s="8">
         <v>1371</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I7" s="8">
         <v>1695</v>
       </c>
-      <c r="J3" s="8">
-        <f>7173-I3-H3-G3</f>
+      <c r="J7" s="8">
+        <f>7173-I7-H7-G7</f>
         <v>2395</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K7" s="8">
         <v>1583</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L7" s="8">
         <v>1707</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M7" s="8">
         <v>2562</v>
       </c>
-      <c r="N3" s="8">
-        <f>8758-M3-K3-K3</f>
+      <c r="N7" s="8">
+        <f>8758-M7-K7-K7</f>
         <v>3030</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O7" s="8">
         <v>2465</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P7" s="8">
         <v>2183</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q7" s="8">
         <v>1870</v>
       </c>
-      <c r="R3" s="8">
-        <v>2200</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="X3" s="7">
-        <f>SUM(C3:F3)</f>
+      <c r="R7" s="8">
+        <v>2309</v>
+      </c>
+      <c r="S7" s="8">
+        <v>15001</v>
+      </c>
+      <c r="T7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="X7" s="7">
+        <f>SUM(C7:F7)</f>
         <v>6279</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y7" s="8">
         <v>7173</v>
       </c>
-      <c r="Z3" s="7">
-        <f>SUM(K3:N3)</f>
+      <c r="Z7" s="7">
+        <f>SUM(K7:N7)</f>
         <v>8882</v>
       </c>
-      <c r="AA3" s="7">
-        <f>SUM(O3:R3)</f>
-        <v>8718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
-        <v>1162</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1002</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1033</v>
-      </c>
-      <c r="N4" s="5">
-        <f>4136-M4-L4-K4</f>
-        <v>939</v>
-      </c>
-      <c r="O4" s="5">
-        <v>806</v>
-      </c>
-      <c r="P4" s="5">
-        <v>795</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>827</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="Y4" s="5">
-        <v>2923</v>
-      </c>
-      <c r="Z4" s="3">
-        <f>SUM(K4:N4)</f>
-        <v>4136</v>
-      </c>
-      <c r="AA4" s="3">
-        <f>SUM(O4:R4)</f>
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <f t="shared" ref="K5:Q5" si="0">+K3-K4</f>
-        <v>421</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>705</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>1529</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>2091</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="0"/>
-        <v>1659</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="0"/>
-        <v>1388</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="0"/>
-        <v>1043</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="Y5" s="5">
-        <f>+Y3-Y4</f>
-        <v>4250</v>
-      </c>
-      <c r="Z5" s="3">
-        <f>+Z3-Z4</f>
-        <v>4746</v>
-      </c>
-      <c r="AA5" s="3">
-        <f>+AA3-AA4</f>
-        <v>6290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <v>10915</v>
-      </c>
-      <c r="L6" s="5">
-        <v>9548</v>
-      </c>
-      <c r="M6" s="5">
-        <v>9459</v>
-      </c>
-      <c r="N6" s="5">
-        <f>37878-M6-L6-K6</f>
-        <v>7956</v>
-      </c>
-      <c r="O6" s="5">
-        <v>8525</v>
-      </c>
-      <c r="P6" s="5">
-        <v>8355</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>8668</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="Y6" s="5">
-        <v>32101</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" ref="Z6:Z8" si="1">SUM(K6:N6)</f>
-        <v>37878</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="shared" ref="AA6:AA8" si="2">SUM(O6:R6)</f>
-        <v>25548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
-        <v>11296</v>
-      </c>
-      <c r="L7" s="5">
-        <v>9576</v>
-      </c>
-      <c r="M7" s="5">
-        <v>8003</v>
-      </c>
-      <c r="N7" s="5">
-        <f>37014-M7-L7-K7</f>
-        <v>8139</v>
-      </c>
-      <c r="O7" s="5">
-        <v>7566</v>
-      </c>
-      <c r="P7" s="5">
-        <v>7471</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>9259</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="Y7" s="5">
-        <v>21539</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="1"/>
-        <v>37014</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="2"/>
-        <v>24296</v>
+      <c r="AA7" s="7">
+        <f>SUM(O7:R7)</f>
+        <v>8827</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1145,47 +1019,51 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5">
-        <v>2900</v>
+        <v>1162</v>
       </c>
       <c r="L8" s="5">
-        <v>2488</v>
+        <v>1002</v>
       </c>
       <c r="M8" s="5">
-        <v>2474</v>
+        <v>1033</v>
       </c>
       <c r="N8" s="5">
-        <f>10276-M8-L8-K8</f>
-        <v>2414</v>
+        <f>4136-M8-L8-K8</f>
+        <v>939</v>
       </c>
       <c r="O8" s="5">
-        <v>3084</v>
+        <v>806</v>
       </c>
       <c r="P8" s="5">
-        <v>4401</v>
+        <v>795</v>
       </c>
       <c r="Q8" s="5">
-        <v>3752</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+        <v>827</v>
+      </c>
+      <c r="R8" s="5">
+        <v>836</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1124</v>
+      </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="Y8" s="5">
-        <v>10068</v>
+        <v>2923</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" si="1"/>
-        <v>10276</v>
+        <f>SUM(K8:N8)</f>
+        <v>4136</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="2"/>
-        <v>11237</v>
+        <f>SUM(O8:R8)</f>
+        <v>3264</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1196,57 +1074,60 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:Q9" si="3">SUM(K6:K8)</f>
-        <v>25111</v>
+        <f t="shared" ref="K9:Q9" si="0">+K7-K8</f>
+        <v>421</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="3"/>
-        <v>21612</v>
+        <f t="shared" si="0"/>
+        <v>705</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="3"/>
-        <v>19936</v>
+        <f t="shared" si="0"/>
+        <v>1529</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="3"/>
-        <v>18509</v>
+        <f t="shared" si="0"/>
+        <v>2091</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="3"/>
-        <v>19175</v>
+        <f t="shared" si="0"/>
+        <v>1659</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="3"/>
-        <v>20227</v>
+        <f t="shared" si="0"/>
+        <v>1388</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="3"/>
-        <v>21679</v>
+        <f t="shared" si="0"/>
+        <v>1043</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" ref="R9" si="4">SUM(R6:R8)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="5"/>
+        <f>+R7-R8</f>
+        <v>1473</v>
+      </c>
+      <c r="S9" s="5">
+        <f>+S7-S8</f>
+        <v>13877</v>
+      </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="Y9" s="5">
-        <f>SUM(Y6:Y8)</f>
-        <v>63708</v>
-      </c>
-      <c r="Z9" s="5">
-        <f>SUM(Z6:Z8)</f>
-        <v>85168</v>
-      </c>
-      <c r="AA9" s="5">
-        <f>SUM(AA6:AA8)</f>
-        <v>61081</v>
+        <f>+Y7-Y8</f>
+        <v>4250</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>+Z7-Z8</f>
+        <v>4746</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>+AA7-AA8</f>
+        <v>5563</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1257,369 +1138,628 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5">
-        <f t="shared" ref="K10:Q10" si="5">+K5-K9</f>
-        <v>-24690</v>
+        <v>10915</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="5"/>
-        <v>-20907</v>
+        <v>9548</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="5"/>
-        <v>-18407</v>
+        <v>9459</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="5"/>
-        <v>-16418</v>
+        <f>37878-M10-L10-K10</f>
+        <v>7956</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="5"/>
-        <v>-17516</v>
+        <v>8525</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="5"/>
-        <v>-18839</v>
+        <v>8355</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="5"/>
-        <v>-20636</v>
+        <v>8668</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" ref="R10" si="6">+R5-R9</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="5"/>
+        <v>9752</v>
+      </c>
+      <c r="S10" s="5">
+        <v>10288</v>
+      </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="Y10" s="5">
-        <f>+Y5-Y9</f>
+        <v>32101</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" ref="Z10:Z12" si="1">SUM(K10:N10)</f>
+        <v>37878</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" ref="AA10:AA12" si="2">SUM(O10:R10)</f>
+        <v>35300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
+        <v>11296</v>
+      </c>
+      <c r="L11" s="5">
+        <v>9576</v>
+      </c>
+      <c r="M11" s="5">
+        <v>8003</v>
+      </c>
+      <c r="N11" s="5">
+        <f>37014-M11-L11-K11</f>
+        <v>8139</v>
+      </c>
+      <c r="O11" s="5">
+        <v>7566</v>
+      </c>
+      <c r="P11" s="5">
+        <v>7471</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>9259</v>
+      </c>
+      <c r="R11" s="5">
+        <v>8126</v>
+      </c>
+      <c r="S11" s="5">
+        <v>7957</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="Y11" s="5">
+        <v>21539</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="1"/>
+        <v>37014</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" si="2"/>
+        <v>32422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
+        <v>2900</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2488</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2474</v>
+      </c>
+      <c r="N12" s="5">
+        <f>10276-M12-L12-K12</f>
+        <v>2414</v>
+      </c>
+      <c r="O12" s="5">
+        <v>3084</v>
+      </c>
+      <c r="P12" s="5">
+        <v>4401</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>3752</v>
+      </c>
+      <c r="R12" s="5">
+        <v>3827</v>
+      </c>
+      <c r="S12" s="5">
+        <v>6923</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="Y12" s="5">
+        <v>10068</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="1"/>
+        <v>10276</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="2"/>
+        <v>15064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5">
+        <f t="shared" ref="K13:Q13" si="3">SUM(K10:K12)</f>
+        <v>25111</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>21612</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="3"/>
+        <v>19936</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="3"/>
+        <v>18509</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="3"/>
+        <v>19175</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="3"/>
+        <v>20227</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="3"/>
+        <v>21679</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" ref="R13:S13" si="4">SUM(R10:R12)</f>
+        <v>21705</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="4"/>
+        <v>25168</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="Y13" s="5">
+        <f>SUM(Y10:Y12)</f>
+        <v>63708</v>
+      </c>
+      <c r="Z13" s="5">
+        <f>SUM(Z10:Z12)</f>
+        <v>85168</v>
+      </c>
+      <c r="AA13" s="5">
+        <f>SUM(AA10:AA12)</f>
+        <v>82786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <f t="shared" ref="K14:Q14" si="5">+K9-K13</f>
+        <v>-24690</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="5"/>
+        <v>-20907</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="5"/>
+        <v>-18407</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="5"/>
+        <v>-16418</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="5"/>
+        <v>-17516</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="5"/>
+        <v>-18839</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="5"/>
+        <v>-20636</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" ref="R14:S14" si="6">+R9-R13</f>
+        <v>-20232</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="6"/>
+        <v>-11291</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="Y14" s="5">
+        <f>+Y9-Y13</f>
         <v>-59458</v>
       </c>
-      <c r="Z10" s="5">
-        <f>+Z5-Z9</f>
+      <c r="Z14" s="5">
+        <f>+Z9-Z13</f>
         <v>-80422</v>
       </c>
-      <c r="AA10" s="5">
-        <f>+AA5-AA9</f>
-        <v>-54791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="AA14" s="5">
+        <f>+AA9-AA13</f>
+        <v>-77223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K15" s="5">
         <v>-212</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L15" s="5">
         <v>-575</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M15" s="5">
         <v>-1035</v>
       </c>
-      <c r="N11" s="5">
-        <f>-37-M11-L11-K11-2118</f>
+      <c r="N15" s="5">
+        <f>-37-M15-L15-K15-2118</f>
         <v>-333</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O15" s="5">
         <v>-1140</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P15" s="5">
         <v>-1160</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q15" s="5">
         <v>-1180</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="R15" s="4">
+        <v>-417</v>
+      </c>
+      <c r="S15" s="4">
+        <v>-226</v>
+      </c>
+      <c r="Y15" s="5">
         <v>-2335</v>
       </c>
-      <c r="Z11" s="3">
-        <f t="shared" ref="Z11" si="7">SUM(K11:N11)</f>
+      <c r="Z15" s="3">
+        <f t="shared" ref="Z15" si="7">SUM(K15:N15)</f>
         <v>-2155</v>
       </c>
-      <c r="AA11" s="3">
-        <f t="shared" ref="AA11:AA13" si="8">SUM(O11:R11)</f>
-        <v>-3480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="AA15" s="3">
+        <f t="shared" ref="AA15:AA17" si="8">SUM(O15:R15)</f>
+        <v>-3897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" ref="K12:R12" si="9">+K10+K11</f>
+      <c r="K16" s="5">
+        <f t="shared" ref="K16:S16" si="9">+K14+K15</f>
         <v>-24902</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L16" s="5">
         <f t="shared" si="9"/>
         <v>-21482</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M16" s="5">
         <f t="shared" si="9"/>
         <v>-19442</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N16" s="5">
         <f t="shared" si="9"/>
         <v>-16751</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O16" s="5">
         <f t="shared" si="9"/>
         <v>-18656</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P16" s="5">
         <f t="shared" si="9"/>
         <v>-19999</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q16" s="5">
         <f t="shared" si="9"/>
         <v>-21816</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R16" s="5">
         <f t="shared" si="9"/>
+        <v>-20649</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="9"/>
+        <v>-11517</v>
+      </c>
+      <c r="Y16" s="5">
+        <f>+Y14+Y15</f>
+        <v>-61793</v>
+      </c>
+      <c r="Z16" s="5">
+        <f>+Z14+Z15</f>
+        <v>-82577</v>
+      </c>
+      <c r="AA16" s="5">
+        <f>+AA14+AA15</f>
+        <v>-81120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="5">
         <v>0</v>
       </c>
-      <c r="Y12" s="5">
-        <f>+Y10+Y11</f>
-        <v>-61793</v>
-      </c>
-      <c r="Z12" s="5">
-        <f>+Z10+Z11</f>
-        <v>-82577</v>
-      </c>
-      <c r="AA12" s="5">
-        <f>+AA10+AA11</f>
-        <v>-58271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="L17" s="5">
         <v>0</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M17" s="5">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O17" s="5">
         <v>0</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q17" s="5">
         <v>0</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R17" s="5">
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y17" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z17" s="1">
         <v>0</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA17" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" ref="K14:R14" si="10">+K12-K13</f>
+      <c r="K18" s="5">
+        <f t="shared" ref="K18:S18" si="10">+K16-K17</f>
         <v>-24902</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L18" s="5">
         <f t="shared" si="10"/>
         <v>-21482</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M18" s="5">
         <f t="shared" si="10"/>
         <v>-19442</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N18" s="5">
         <f t="shared" si="10"/>
         <v>-16751</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O18" s="5">
         <f t="shared" si="10"/>
         <v>-18656</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P18" s="5">
         <f t="shared" si="10"/>
         <v>-19999</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q18" s="5">
         <f t="shared" si="10"/>
         <v>-21816</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R18" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5">
-        <f>+Y12-Y13</f>
+        <v>-20649</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="10"/>
+        <v>-11517</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>+Y16-Y17</f>
         <v>-61793</v>
       </c>
-      <c r="Z14" s="5">
-        <f>+Z12-Z13</f>
+      <c r="Z18" s="5">
+        <f>+Z16-Z17</f>
         <v>-82577</v>
       </c>
-      <c r="AA14" s="5">
-        <f>+AA12-AA13</f>
-        <v>-58271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="AA18" s="5">
+        <f>+AA16-AA17</f>
+        <v>-81120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="6">
-        <f t="shared" ref="K15:R15" si="11">+K14/K16</f>
+      <c r="K19" s="6">
+        <f t="shared" ref="K19:S19" si="11">+K18/K20</f>
         <v>-0.20221838160866129</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L19" s="6">
         <f t="shared" si="11"/>
         <v>-0.16870075204552409</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M19" s="6">
         <f t="shared" si="11"/>
         <v>-0.14593556466674945</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N19" s="6">
         <f t="shared" si="11"/>
         <v>-0.12138956800184031</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O19" s="6">
         <f t="shared" si="11"/>
         <v>-0.11565417294526779</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P19" s="6">
         <f t="shared" si="11"/>
         <v>-0.11617930930677366</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q19" s="6">
         <f t="shared" si="11"/>
         <v>-0.10822205182749896</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R19" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <f>+Y14/Y16</f>
+        <v>-0.10243294591978483</v>
+      </c>
+      <c r="S19" s="6">
+        <f t="shared" si="11"/>
+        <v>-4.0210128347922619E-2</v>
+      </c>
+      <c r="Y19" s="6">
+        <f>+Y18/Y20</f>
         <v>-0.51645756861826186</v>
       </c>
-      <c r="Z15" s="6">
-        <f>+Z14/Z16</f>
+      <c r="Z19" s="6">
+        <f>+Z18/Z20</f>
         <v>-0.59841122063685559</v>
       </c>
-      <c r="AA15" s="6">
-        <f>+AA14/AA16</f>
-        <v>-0.28906340218372717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+      <c r="AA19" s="6">
+        <f>+AA18/AA20</f>
+        <v>-0.40240982967760885</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5">
         <v>123144.09699999999</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L20" s="5">
         <v>127337.90300000001</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M20" s="5">
         <v>133223.18</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N20" s="5">
         <v>137993.736</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O20" s="5">
         <v>161308.49</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P20" s="5">
         <v>172139.08499999999</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q20" s="5">
         <v>201585.533</v>
       </c>
-      <c r="R16" s="5">
-        <f>+Q16</f>
+      <c r="R20" s="5">
+        <f>+Q20</f>
         <v>201585.533</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="Y16" s="5">
+      <c r="S20" s="5">
+        <v>286420.37400000001</v>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="Y20" s="5">
         <v>119647.777</v>
       </c>
-      <c r="Z16" s="3">
-        <f>+N16</f>
+      <c r="Z20" s="3">
+        <f>+N20</f>
         <v>137993.736</v>
       </c>
-      <c r="AA16" s="3">
-        <f>+Q16</f>
+      <c r="AA20" s="3">
+        <f>+Q20</f>
         <v>201585.533</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="9">
-        <f t="shared" ref="N18:P18" si="12">N3/J3-1</f>
+      <c r="N22" s="9">
+        <f t="shared" ref="N22:P22" si="12">N7/J7-1</f>
         <v>0.2651356993736953</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O22" s="9">
         <f t="shared" si="12"/>
         <v>0.55716993051168662</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P22" s="9">
         <f t="shared" si="12"/>
         <v>0.27885178676039835</v>
       </c>
-      <c r="Q18" s="9">
-        <f>Q3/M3-1</f>
+      <c r="Q22" s="9">
+        <f>Q7/M7-1</f>
         <v>-0.27010148321623728</v>
       </c>
-      <c r="R18" s="9">
-        <f>R3/N3-1</f>
-        <v>-0.27392739273927391</v>
-      </c>
-      <c r="Y18" s="11">
-        <f t="shared" ref="Y18" si="13">+Y3/X3-1</f>
+      <c r="R22" s="9">
+        <f>R7/N7-1</f>
+        <v>-0.23795379537953798</v>
+      </c>
+      <c r="S22" s="9">
+        <f>S7/O7-1</f>
+        <v>5.0855983772819471</v>
+      </c>
+      <c r="Y22" s="11">
+        <f t="shared" ref="Y22" si="13">+Y7/X7-1</f>
         <v>0.14237935977066418</v>
       </c>
-      <c r="Z18" s="11">
-        <f>+Z3/Y3-1</f>
+      <c r="Z22" s="11">
+        <f>+Z7/Y7-1</f>
         <v>0.2382545657326085</v>
       </c>
-      <c r="AA18" s="11">
-        <f>+AA3/Z3-1</f>
-        <v>-1.8464309840126147E-2</v>
+      <c r="AA22" s="11">
+        <f>+AA7/Z7-1</f>
+        <v>-6.1922990317495596E-3</v>
       </c>
     </row>
   </sheetData>

--- a/QBTS.xlsx
+++ b/QBTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CB230-8AE0-4385-8674-91C207E6590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36267C15-73E6-4169-8727-69DDEADEF428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49110" yWindow="1095" windowWidth="37290" windowHeight="18300" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
+    <workbookView xWindow="-49950" yWindow="1185" windowWidth="36180" windowHeight="16920" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -178,13 +178,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -240,43 +246,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -673,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F519C58F-560C-4ADB-A46B-8738912F1791}">
   <dimension ref="K2:M10"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -687,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="11:13" x14ac:dyDescent="0.2">
@@ -697,8 +706,8 @@
       <c r="L3" s="3">
         <v>286</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>6</v>
+      <c r="M3" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="11:13" x14ac:dyDescent="0.2">
@@ -707,7 +716,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>2860</v>
+        <v>3146</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -716,11 +725,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>170+29.27</f>
-        <v>199.27</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>6</v>
+        <v>304.32100000000003</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="11:13" x14ac:dyDescent="0.2">
@@ -728,11 +736,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <f>14.07+32.013</f>
-        <v>46.082999999999998</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>6</v>
+        <v>30.367000000000001</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="11:13" x14ac:dyDescent="0.2">
@@ -741,7 +748,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>2706.8130000000001</v>
+        <v>2872.0460000000003</v>
       </c>
     </row>
     <row r="9" spans="11:13" x14ac:dyDescent="0.2">
@@ -775,11 +782,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF8220-2C4E-40EE-8452-F9F198344058}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -794,10 +801,7 @@
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="15">
-        <f>CORREL(L3:R3,M7:S7)</f>
-        <v>0.98815973330078921</v>
-      </c>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
@@ -988,8 +992,12 @@
       <c r="T7" s="8">
         <v>2000</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="U7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="V7" s="8">
+        <v>2000</v>
+      </c>
       <c r="X7" s="7">
         <f>SUM(C7:F7)</f>
         <v>6279</v>

--- a/QBTS.xlsx
+++ b/QBTS.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36267C15-73E6-4169-8727-69DDEADEF428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D9ECAF-CF16-48AE-B9E0-B6C0B1A8B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49950" yWindow="1185" windowWidth="36180" windowHeight="16920" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
+    <workbookView xWindow="110" yWindow="1960" windowWidth="23690" windowHeight="11080" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="QUBO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Price</t>
   </si>
@@ -169,6 +170,15 @@
   </si>
   <si>
     <t>Bookings</t>
+  </si>
+  <si>
+    <t>QUBO</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>QAOA</t>
   </si>
 </sst>
 </file>
@@ -248,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -288,6 +298,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -320,7 +331,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>16510</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -682,24 +693,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F519C58F-560C-4ADB-A46B-8738912F1791}">
   <dimension ref="K2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -710,17 +721,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>3146</v>
+        <v>3786.64</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,7 +742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,16 +753,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>2872.0460000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="11:13" x14ac:dyDescent="0.2">
+        <v>3512.6860000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
@@ -762,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K10" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,30 +791,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF8220-2C4E-40EE-8452-F9F198344058}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q8:V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="8.7109375" style="4"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="8.7265625" style="4"/>
+    <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
@@ -877,7 +888,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
@@ -929,94 +940,213 @@
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
     </row>
-    <row r="7" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+    <row r="5" spans="1:27" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8">
-        <f>2546-D7</f>
+      <c r="C5" s="8">
+        <f>2546-D5</f>
         <v>1409</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D5" s="8">
         <v>1137</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E5" s="8">
         <v>1307</v>
       </c>
-      <c r="F7" s="8">
-        <f>6279-E7-D7-C7</f>
+      <c r="F5" s="8">
+        <f>6279-E5-D5-C5</f>
         <v>2426</v>
       </c>
-      <c r="G7" s="8">
-        <f>3083-H7</f>
+      <c r="G5" s="8">
+        <f>3083-H5</f>
         <v>1712</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H5" s="8">
         <v>1371</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I5" s="8">
         <v>1695</v>
       </c>
-      <c r="J7" s="8">
-        <f>7173-I7-H7-G7</f>
+      <c r="J5" s="8">
+        <f>7173-I5-H5-G5</f>
         <v>2395</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K5" s="8">
         <v>1583</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L5" s="8">
         <v>1707</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M5" s="8">
         <v>2562</v>
       </c>
-      <c r="N7" s="8">
-        <f>8758-M7-K7-K7</f>
+      <c r="N5" s="8">
+        <f>8758-M5-K5-K5</f>
         <v>3030</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O5" s="8">
         <v>2465</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P5" s="8">
         <v>2183</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q5" s="8">
         <v>1870</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R5" s="8">
         <v>2309</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S5" s="8">
         <v>15001</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T5" s="8">
         <v>2000</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U5" s="8">
         <v>2000</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V5" s="8">
         <v>2000</v>
       </c>
-      <c r="X7" s="7">
-        <f>SUM(C7:F7)</f>
+      <c r="X5" s="7">
+        <f>SUM(C5:F5)</f>
         <v>6279</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y5" s="8">
         <v>7173</v>
       </c>
-      <c r="Z7" s="7">
-        <f>SUM(K7:N7)</f>
+      <c r="Z5" s="7">
+        <f>SUM(K5:N5)</f>
         <v>8882</v>
       </c>
-      <c r="AA7" s="7">
-        <f>SUM(O7:R7)</f>
+      <c r="AA5" s="7">
+        <f>SUM(O5:R5)</f>
         <v>8827</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>1162</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1002</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1033</v>
+      </c>
+      <c r="N6" s="5">
+        <f>4136-M6-L6-K6</f>
+        <v>939</v>
+      </c>
+      <c r="O6" s="5">
+        <v>806</v>
+      </c>
+      <c r="P6" s="5">
+        <v>795</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>827</v>
+      </c>
+      <c r="R6" s="5">
+        <v>836</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1124</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="Y6" s="5">
+        <v>2923</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>SUM(K6:N6)</f>
+        <v>4136</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>SUM(O6:R6)</f>
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <f t="shared" ref="K7:Q7" si="0">+K5-K6</f>
+        <v>421</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>1529</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>2091</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
+        <v>1659</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="0"/>
+        <v>1388</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="0"/>
+        <v>1043</v>
+      </c>
+      <c r="R7" s="5">
+        <f>+R5-R6</f>
+        <v>1473</v>
+      </c>
+      <c r="S7" s="5">
+        <f>+S5-S6</f>
+        <v>13877</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="Y7" s="5">
+        <f>+Y5-Y6</f>
+        <v>4250</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>+Z5-Z6</f>
+        <v>4746</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>+AA5-AA6</f>
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1027,51 +1157,51 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5">
-        <v>1162</v>
+        <v>10915</v>
       </c>
       <c r="L8" s="5">
-        <v>1002</v>
+        <v>9548</v>
       </c>
       <c r="M8" s="5">
-        <v>1033</v>
+        <v>9459</v>
       </c>
       <c r="N8" s="5">
-        <f>4136-M8-L8-K8</f>
-        <v>939</v>
+        <f>37878-M8-L8-K8</f>
+        <v>7956</v>
       </c>
       <c r="O8" s="5">
-        <v>806</v>
+        <v>8525</v>
       </c>
       <c r="P8" s="5">
-        <v>795</v>
+        <v>8355</v>
       </c>
       <c r="Q8" s="5">
-        <v>827</v>
+        <v>8668</v>
       </c>
       <c r="R8" s="5">
-        <v>836</v>
+        <v>9752</v>
       </c>
       <c r="S8" s="5">
-        <v>1124</v>
+        <v>10288</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="Y8" s="5">
-        <v>2923</v>
+        <v>32101</v>
       </c>
       <c r="Z8" s="3">
-        <f>SUM(K8:N8)</f>
-        <v>4136</v>
+        <f t="shared" ref="Z8:Z10" si="1">SUM(K8:N8)</f>
+        <v>37878</v>
       </c>
       <c r="AA8" s="3">
-        <f>SUM(O8:R8)</f>
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA8:AA10" si="2">SUM(O8:R8)</f>
+        <v>35300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1082,60 +1212,51 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:Q9" si="0">+K7-K8</f>
-        <v>421</v>
+        <v>11296</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>705</v>
+        <v>9576</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="0"/>
-        <v>1529</v>
+        <v>8003</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="0"/>
-        <v>2091</v>
+        <f>37014-M9-L9-K9</f>
+        <v>8139</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="0"/>
-        <v>1659</v>
+        <v>7566</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <v>7471</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="0"/>
-        <v>1043</v>
+        <v>9259</v>
       </c>
       <c r="R9" s="5">
-        <f>+R7-R8</f>
-        <v>1473</v>
+        <v>8126</v>
       </c>
       <c r="S9" s="5">
-        <f>+S7-S8</f>
-        <v>13877</v>
+        <v>7957</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="Y9" s="5">
-        <f>+Y7-Y8</f>
-        <v>4250</v>
+        <v>21539</v>
       </c>
       <c r="Z9" s="3">
-        <f>+Z7-Z8</f>
-        <v>4746</v>
+        <f t="shared" si="1"/>
+        <v>37014</v>
       </c>
       <c r="AA9" s="3">
-        <f>+AA7-AA8</f>
-        <v>5563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>32422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1146,51 +1267,51 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5">
-        <v>10915</v>
+        <v>2900</v>
       </c>
       <c r="L10" s="5">
-        <v>9548</v>
+        <v>2488</v>
       </c>
       <c r="M10" s="5">
-        <v>9459</v>
+        <v>2474</v>
       </c>
       <c r="N10" s="5">
-        <f>37878-M10-L10-K10</f>
-        <v>7956</v>
+        <f>10276-M10-L10-K10</f>
+        <v>2414</v>
       </c>
       <c r="O10" s="5">
-        <v>8525</v>
+        <v>3084</v>
       </c>
       <c r="P10" s="5">
-        <v>8355</v>
+        <v>4401</v>
       </c>
       <c r="Q10" s="5">
-        <v>8668</v>
+        <v>3752</v>
       </c>
       <c r="R10" s="5">
-        <v>9752</v>
+        <v>3827</v>
       </c>
       <c r="S10" s="5">
-        <v>10288</v>
+        <v>6923</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="Y10" s="5">
-        <v>32101</v>
+        <v>10068</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" ref="Z10:Z12" si="1">SUM(K10:N10)</f>
-        <v>37878</v>
+        <f t="shared" si="1"/>
+        <v>10276</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" ref="AA10:AA12" si="2">SUM(O10:R10)</f>
-        <v>35300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>15064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1201,51 +1322,60 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5">
-        <v>11296</v>
+        <f t="shared" ref="K11:Q11" si="3">SUM(K8:K10)</f>
+        <v>25111</v>
       </c>
       <c r="L11" s="5">
-        <v>9576</v>
+        <f t="shared" si="3"/>
+        <v>21612</v>
       </c>
       <c r="M11" s="5">
-        <v>8003</v>
+        <f t="shared" si="3"/>
+        <v>19936</v>
       </c>
       <c r="N11" s="5">
-        <f>37014-M11-L11-K11</f>
-        <v>8139</v>
+        <f t="shared" si="3"/>
+        <v>18509</v>
       </c>
       <c r="O11" s="5">
-        <v>7566</v>
+        <f t="shared" si="3"/>
+        <v>19175</v>
       </c>
       <c r="P11" s="5">
-        <v>7471</v>
+        <f t="shared" si="3"/>
+        <v>20227</v>
       </c>
       <c r="Q11" s="5">
-        <v>9259</v>
+        <f t="shared" si="3"/>
+        <v>21679</v>
       </c>
       <c r="R11" s="5">
-        <v>8126</v>
+        <f t="shared" ref="R11:S11" si="4">SUM(R8:R10)</f>
+        <v>21705</v>
       </c>
       <c r="S11" s="5">
-        <v>7957</v>
+        <f t="shared" si="4"/>
+        <v>25168</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="Y11" s="5">
-        <v>21539</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="1"/>
-        <v>37014</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="2"/>
-        <v>32422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>SUM(Y8:Y10)</f>
+        <v>63708</v>
+      </c>
+      <c r="Z11" s="5">
+        <f>SUM(Z8:Z10)</f>
+        <v>85168</v>
+      </c>
+      <c r="AA11" s="5">
+        <f>SUM(AA8:AA10)</f>
+        <v>82786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1256,517 +1386,398 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5">
-        <v>2900</v>
+        <f t="shared" ref="K12:Q12" si="5">+K7-K11</f>
+        <v>-24690</v>
       </c>
       <c r="L12" s="5">
-        <v>2488</v>
+        <f t="shared" si="5"/>
+        <v>-20907</v>
       </c>
       <c r="M12" s="5">
-        <v>2474</v>
+        <f t="shared" si="5"/>
+        <v>-18407</v>
       </c>
       <c r="N12" s="5">
-        <f>10276-M12-L12-K12</f>
-        <v>2414</v>
+        <f t="shared" si="5"/>
+        <v>-16418</v>
       </c>
       <c r="O12" s="5">
-        <v>3084</v>
+        <f t="shared" si="5"/>
+        <v>-17516</v>
       </c>
       <c r="P12" s="5">
-        <v>4401</v>
+        <f t="shared" si="5"/>
+        <v>-18839</v>
       </c>
       <c r="Q12" s="5">
-        <v>3752</v>
+        <f t="shared" si="5"/>
+        <v>-20636</v>
       </c>
       <c r="R12" s="5">
-        <v>3827</v>
+        <f t="shared" ref="R12:S12" si="6">+R7-R11</f>
+        <v>-20232</v>
       </c>
       <c r="S12" s="5">
-        <v>6923</v>
+        <f t="shared" si="6"/>
+        <v>-11291</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="Y12" s="5">
-        <v>10068</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="1"/>
-        <v>10276</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="2"/>
-        <v>15064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+        <f>+Y7-Y11</f>
+        <v>-59458</v>
+      </c>
+      <c r="Z12" s="5">
+        <f>+Z7-Z11</f>
+        <v>-80422</v>
+      </c>
+      <c r="AA12" s="5">
+        <f>+AA7-AA11</f>
+        <v>-77223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K13" s="5">
-        <f t="shared" ref="K13:Q13" si="3">SUM(K10:K12)</f>
-        <v>25111</v>
+        <v>-212</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="3"/>
-        <v>21612</v>
+        <v>-575</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="3"/>
-        <v>19936</v>
+        <v>-1035</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="3"/>
-        <v>18509</v>
+        <f>-37-M13-L13-K13-2118</f>
+        <v>-333</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="3"/>
-        <v>19175</v>
+        <v>-1140</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="3"/>
-        <v>20227</v>
+        <v>-1160</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="3"/>
-        <v>21679</v>
-      </c>
-      <c r="R13" s="5">
-        <f t="shared" ref="R13:S13" si="4">SUM(R10:R12)</f>
-        <v>21705</v>
-      </c>
-      <c r="S13" s="5">
-        <f t="shared" si="4"/>
-        <v>25168</v>
-      </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+        <v>-1180</v>
+      </c>
+      <c r="R13" s="4">
+        <v>-417</v>
+      </c>
+      <c r="S13" s="4">
+        <v>-226</v>
+      </c>
       <c r="Y13" s="5">
-        <f>SUM(Y10:Y12)</f>
-        <v>63708</v>
-      </c>
-      <c r="Z13" s="5">
-        <f>SUM(Z10:Z12)</f>
-        <v>85168</v>
-      </c>
-      <c r="AA13" s="5">
-        <f>SUM(AA10:AA12)</f>
-        <v>82786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+        <v>-2335</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" ref="Z13" si="7">SUM(K13:N13)</f>
+        <v>-2155</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" ref="AA13:AA15" si="8">SUM(O13:R13)</f>
+        <v>-3897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:Q14" si="5">+K9-K13</f>
-        <v>-24690</v>
+        <f t="shared" ref="K14:S14" si="9">+K12+K13</f>
+        <v>-24902</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="5"/>
-        <v>-20907</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="5"/>
-        <v>-18407</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="5"/>
-        <v>-16418</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" si="5"/>
-        <v>-17516</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="5"/>
-        <v>-18839</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="5"/>
-        <v>-20636</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" ref="R14:S14" si="6">+R9-R13</f>
-        <v>-20232</v>
-      </c>
-      <c r="S14" s="5">
-        <f t="shared" si="6"/>
-        <v>-11291</v>
-      </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="Y14" s="5">
-        <f>+Y9-Y13</f>
-        <v>-59458</v>
-      </c>
-      <c r="Z14" s="5">
-        <f>+Z9-Z13</f>
-        <v>-80422</v>
-      </c>
-      <c r="AA14" s="5">
-        <f>+AA9-AA13</f>
-        <v>-77223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="5">
-        <v>-212</v>
-      </c>
-      <c r="L15" s="5">
-        <v>-575</v>
-      </c>
-      <c r="M15" s="5">
-        <v>-1035</v>
-      </c>
-      <c r="N15" s="5">
-        <f>-37-M15-L15-K15-2118</f>
-        <v>-333</v>
-      </c>
-      <c r="O15" s="5">
-        <v>-1140</v>
-      </c>
-      <c r="P15" s="5">
-        <v>-1160</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>-1180</v>
-      </c>
-      <c r="R15" s="4">
-        <v>-417</v>
-      </c>
-      <c r="S15" s="4">
-        <v>-226</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>-2335</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" ref="Z15" si="7">SUM(K15:N15)</f>
-        <v>-2155</v>
-      </c>
-      <c r="AA15" s="3">
-        <f t="shared" ref="AA15:AA17" si="8">SUM(O15:R15)</f>
-        <v>-3897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" ref="K16:S16" si="9">+K14+K15</f>
-        <v>-24902</v>
-      </c>
-      <c r="L16" s="5">
         <f t="shared" si="9"/>
         <v>-21482</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M14" s="5">
         <f t="shared" si="9"/>
         <v>-19442</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N14" s="5">
         <f t="shared" si="9"/>
         <v>-16751</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O14" s="5">
         <f t="shared" si="9"/>
         <v>-18656</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P14" s="5">
         <f t="shared" si="9"/>
         <v>-19999</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q14" s="5">
         <f t="shared" si="9"/>
         <v>-21816</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R14" s="5">
         <f t="shared" si="9"/>
         <v>-20649</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S14" s="5">
         <f t="shared" si="9"/>
         <v>-11517</v>
       </c>
-      <c r="Y16" s="5">
-        <f>+Y14+Y15</f>
+      <c r="Y14" s="5">
+        <f>+Y12+Y13</f>
         <v>-61793</v>
       </c>
-      <c r="Z16" s="5">
-        <f>+Z14+Z15</f>
+      <c r="Z14" s="5">
+        <f>+Z12+Z13</f>
         <v>-82577</v>
       </c>
-      <c r="AA16" s="5">
-        <f>+AA14+AA15</f>
+      <c r="AA14" s="5">
+        <f>+AA12+AA13</f>
         <v>-81120</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K15" s="5">
         <v>0</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L15" s="5">
         <v>0</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O15" s="5">
         <v>0</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P15" s="5">
         <v>0</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q15" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R15" s="5">
         <v>0</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S15" s="4">
         <v>0</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y15" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z15" s="1">
         <v>0</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA15" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" ref="K18:S18" si="10">+K16-K17</f>
+      <c r="K16" s="5">
+        <f t="shared" ref="K16:S16" si="10">+K14-K15</f>
         <v>-24902</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L16" s="5">
         <f t="shared" si="10"/>
         <v>-21482</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M16" s="5">
         <f t="shared" si="10"/>
         <v>-19442</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N16" s="5">
         <f t="shared" si="10"/>
         <v>-16751</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O16" s="5">
         <f t="shared" si="10"/>
         <v>-18656</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P16" s="5">
         <f t="shared" si="10"/>
         <v>-19999</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q16" s="5">
         <f t="shared" si="10"/>
         <v>-21816</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R16" s="5">
         <f t="shared" si="10"/>
         <v>-20649</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S16" s="5">
         <f t="shared" si="10"/>
         <v>-11517</v>
       </c>
-      <c r="Y18" s="5">
-        <f>+Y16-Y17</f>
+      <c r="Y16" s="5">
+        <f>+Y14-Y15</f>
         <v>-61793</v>
       </c>
-      <c r="Z18" s="5">
-        <f>+Z16-Z17</f>
+      <c r="Z16" s="5">
+        <f>+Z14-Z15</f>
         <v>-82577</v>
       </c>
-      <c r="AA18" s="5">
-        <f>+AA16-AA17</f>
+      <c r="AA16" s="5">
+        <f>+AA14-AA15</f>
         <v>-81120</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="6">
-        <f t="shared" ref="K19:S19" si="11">+K18/K20</f>
+      <c r="K17" s="6">
+        <f t="shared" ref="K17:S17" si="11">+K16/K18</f>
         <v>-0.20221838160866129</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L17" s="6">
         <f t="shared" si="11"/>
         <v>-0.16870075204552409</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M17" s="6">
         <f t="shared" si="11"/>
         <v>-0.14593556466674945</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N17" s="6">
         <f t="shared" si="11"/>
         <v>-0.12138956800184031</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O17" s="6">
         <f t="shared" si="11"/>
         <v>-0.11565417294526779</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P17" s="6">
         <f t="shared" si="11"/>
         <v>-0.11617930930677366</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q17" s="6">
         <f t="shared" si="11"/>
         <v>-0.10822205182749896</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R17" s="6">
         <f t="shared" si="11"/>
         <v>-0.10243294591978483</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S17" s="6">
         <f t="shared" si="11"/>
         <v>-4.0210128347922619E-2</v>
       </c>
-      <c r="Y19" s="6">
-        <f>+Y18/Y20</f>
+      <c r="Y17" s="6">
+        <f>+Y16/Y18</f>
         <v>-0.51645756861826186</v>
       </c>
-      <c r="Z19" s="6">
-        <f>+Z18/Z20</f>
+      <c r="Z17" s="6">
+        <f>+Z16/Z18</f>
         <v>-0.59841122063685559</v>
       </c>
-      <c r="AA19" s="6">
-        <f>+AA18/AA20</f>
+      <c r="AA17" s="6">
+        <f>+AA16/AA18</f>
         <v>-0.40240982967760885</v>
       </c>
     </row>
-    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+    <row r="18" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
         <v>123144.09699999999</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L18" s="5">
         <v>127337.90300000001</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M18" s="5">
         <v>133223.18</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N18" s="5">
         <v>137993.736</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O18" s="5">
         <v>161308.49</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P18" s="5">
         <v>172139.08499999999</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q18" s="5">
         <v>201585.533</v>
       </c>
-      <c r="R20" s="5">
-        <f>+Q20</f>
+      <c r="R18" s="5">
+        <f>+Q18</f>
         <v>201585.533</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S18" s="5">
         <v>286420.37400000001</v>
       </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="Y20" s="5">
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="Y18" s="5">
         <v>119647.777</v>
       </c>
-      <c r="Z20" s="3">
-        <f>+N20</f>
+      <c r="Z18" s="3">
+        <f>+N18</f>
         <v>137993.736</v>
       </c>
-      <c r="AA20" s="3">
-        <f>+Q20</f>
+      <c r="AA18" s="3">
+        <f>+Q18</f>
         <v>201585.533</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="9">
-        <f t="shared" ref="N22:P22" si="12">N7/J7-1</f>
+      <c r="N20" s="9">
+        <f t="shared" ref="N20:P20" si="12">N5/J5-1</f>
         <v>0.2651356993736953</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O20" s="9">
         <f t="shared" si="12"/>
         <v>0.55716993051168662</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P20" s="9">
         <f t="shared" si="12"/>
         <v>0.27885178676039835</v>
       </c>
-      <c r="Q22" s="9">
-        <f>Q7/M7-1</f>
+      <c r="Q20" s="9">
+        <f>Q5/M5-1</f>
         <v>-0.27010148321623728</v>
       </c>
-      <c r="R22" s="9">
-        <f>R7/N7-1</f>
+      <c r="R20" s="9">
+        <f>R5/N5-1</f>
         <v>-0.23795379537953798</v>
       </c>
-      <c r="S22" s="9">
-        <f>S7/O7-1</f>
+      <c r="S20" s="9">
+        <f>S5/O5-1</f>
         <v>5.0855983772819471</v>
       </c>
-      <c r="Y22" s="11">
-        <f t="shared" ref="Y22" si="13">+Y7/X7-1</f>
+      <c r="Y20" s="11">
+        <f t="shared" ref="Y20" si="13">+Y5/X5-1</f>
         <v>0.14237935977066418</v>
       </c>
-      <c r="Z22" s="11">
-        <f>+Z7/Y7-1</f>
+      <c r="Z20" s="11">
+        <f>+Z5/Y5-1</f>
         <v>0.2382545657326085</v>
       </c>
-      <c r="AA22" s="11">
-        <f>+AA7/Z7-1</f>
+      <c r="AA20" s="11">
+        <f>+AA5/Z5-1</f>
         <v>-6.1922990317495596E-3</v>
       </c>
     </row>
@@ -1777,4 +1788,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D30DDA0-F523-4D76-8F6C-D34B31788E98}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>